--- a/InterviewTest/output/230350/230350_failed.xlsx
+++ b/InterviewTest/output/230350/230350_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7FDD5D-F713-4EAE-A01E-1155DCD57A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EFA732-6D21-4ED2-8D77-E16ED61C3749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230350/230350_failed.xlsx
+++ b/InterviewTest/output/230350/230350_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EFA732-6D21-4ED2-8D77-E16ED61C3749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42D4C60-B975-4CB5-9CD5-D897340022A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="31530" yWindow="2730" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230350/230350_failed.xlsx
+++ b/InterviewTest/output/230350/230350_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42D4C60-B975-4CB5-9CD5-D897340022A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE67D587-0749-4076-ABC1-122DC62903D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="2730" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
